--- a/biology/Botanique/Associazione_Italiana_della_Rosa/Associazione_Italiana_della_Rosa.xlsx
+++ b/biology/Botanique/Associazione_Italiana_della_Rosa/Associazione_Italiana_della_Rosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Associazione Italiana della Rosa (AIR), (en français Association italienne de la rose), est une association dont le but est d'étendre la diffusion des plantes du genre Rosa et leur culture, tant en Italie qu'à l'étranger.
-L'AIR a été fondée par Niso Fumagalli et son épouse Ester Boschetti Fumagalli en 1963[1]. L'objet de l'association, tel que cité par l'article 3 de son statut, est de : « ...diffuser la connaissance des roses et de leur culture et encourager, améliorer et étendre la culture des roses à travers des expériences, des expositions, des publications, des concours et d'autres activités destinées exclusivement à des fins de solidarité sociale. » 
+L'AIR a été fondée par Niso Fumagalli et son épouse Ester Boschetti Fumagalli en 1963. L'objet de l'association, tel que cité par l'article 3 de son statut, est de : « ...diffuser la connaissance des roses et de leur culture et encourager, améliorer et étendre la culture des roses à travers des expériences, des expositions, des publications, des concours et d'autres activités destinées exclusivement à des fins de solidarité sociale. » 
 Niso Fumagalli en fut le président jusqu'en 1990, année de sa mort. Par la suite, la présidence fut confiée à son épouse Ester Boschetti Fumagalli qui avait collaboré avec lui à la création de l'association. Au fil des années, Mme Fumagalli a maintenu la présidence d'honneur et l'actuel président est son fils Silvano Fumagalli.
-L'Associazione Italiana della Rosa est la seule association représentant l'Italie au sein de la Fédération mondiale des sociétés de roses[2]. Cité dans de nombreux livres relatifs à la culture de la rose[3],[4], sa réputation n'a fait que croître au fil des années, non seulement en Italie mais aussi à l'étranger[5]. Cette réputation est également liée à la qualité du concours organisé chaque année en mai au Roseraie Niso Fumagalli dans le jardin de la Villa royale de Monza. Dans le secteur, on considère que « les concours les plus célèbres consacrés à la rose en Italie sont ceux de Rome, Monza et Gênes[6]. »
-Le premier concours organisé par l'association a eu lieu en 1965. Outre les prix de «La Rose de l'année» dans les différentes catégories: Hybride de Thé, Floribunda et Arbuste, Grimpant, Couvre-sol, Miniature, il existe un prix spécial pour la rose parfumée[7].
+L'Associazione Italiana della Rosa est la seule association représentant l'Italie au sein de la Fédération mondiale des sociétés de roses. Cité dans de nombreux livres relatifs à la culture de la rose sa réputation n'a fait que croître au fil des années, non seulement en Italie mais aussi à l'étranger. Cette réputation est également liée à la qualité du concours organisé chaque année en mai au Roseraie Niso Fumagalli dans le jardin de la Villa royale de Monza. Dans le secteur, on considère que « les concours les plus célèbres consacrés à la rose en Italie sont ceux de Rome, Monza et Gênes. »
+Le premier concours organisé par l'association a eu lieu en 1965. Outre les prix de «La Rose de l'année» dans les différentes catégories: Hybride de Thé, Floribunda et Arbuste, Grimpant, Couvre-sol, Miniature, il existe un prix spécial pour la rose parfumée.
 La première marraine du concours fut Carla Fracci en 1969, en 1970 la princesse Grace y participa et en 1991 le prix Nobel Rita Levi-Montalcini.
 </t>
         </is>
